--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>2.697244797434</v>
+        <v>19.6016776407775</v>
       </c>
       <c r="R2">
-        <v>10.788979189736</v>
+        <v>78.40671056311001</v>
       </c>
       <c r="S2">
-        <v>0.0004929809013881298</v>
+        <v>0.003105081982914991</v>
       </c>
       <c r="T2">
-        <v>0.0002556068969640057</v>
+        <v>0.001654782387219781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H3">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I3">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J3">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>3.976600746908666</v>
+        <v>31.92851346176366</v>
       </c>
       <c r="R3">
-        <v>23.859604481452</v>
+        <v>191.571080770582</v>
       </c>
       <c r="S3">
-        <v>0.0007268113826882687</v>
+        <v>0.005057763611270606</v>
       </c>
       <c r="T3">
-        <v>0.0005652693695149914</v>
+        <v>0.004043129064886037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H4">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I4">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J4">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>1.880441780337667</v>
+        <v>17.49004612116534</v>
       </c>
       <c r="R4">
-        <v>11.282650682026</v>
+        <v>104.940276726992</v>
       </c>
       <c r="S4">
-        <v>0.0003436921575530248</v>
+        <v>0.002770580563890376</v>
       </c>
       <c r="T4">
-        <v>0.0002673027058116011</v>
+        <v>0.002214776265840431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H5">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I5">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J5">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>0.6321738652045</v>
+        <v>7.489818745995251</v>
       </c>
       <c r="R5">
-        <v>2.528695460818</v>
+        <v>29.959274983981</v>
       </c>
       <c r="S5">
-        <v>0.0001155436993331186</v>
+        <v>0.001186454632592679</v>
       </c>
       <c r="T5">
-        <v>5.990854081186447E-05</v>
+        <v>0.0006322938460409187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H6">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I6">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J6">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>1.457611546056333</v>
+        <v>11.90384524950767</v>
       </c>
       <c r="R6">
-        <v>8.745669276338001</v>
+        <v>71.42307149704601</v>
       </c>
       <c r="S6">
-        <v>0.00026641061817311</v>
+        <v>0.001885676118597181</v>
       </c>
       <c r="T6">
-        <v>0.0002071978586931446</v>
+        <v>0.001507391904412561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H7">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I7">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J7">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>1.383877036054333</v>
+        <v>13.1813060100805</v>
       </c>
       <c r="R7">
-        <v>8.303262216325999</v>
+        <v>79.08783606048301</v>
       </c>
       <c r="S7">
-        <v>0.0002529340122533288</v>
+        <v>0.002088037389108221</v>
       </c>
       <c r="T7">
-        <v>0.0001967165801758762</v>
+        <v>0.001669157616947496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J8">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>1001.894278343332</v>
+        <v>906.8345659522701</v>
       </c>
       <c r="R8">
-        <v>6011.365670059992</v>
+        <v>5441.00739571362</v>
       </c>
       <c r="S8">
-        <v>0.1831182490010499</v>
+        <v>0.1436507488708625</v>
       </c>
       <c r="T8">
-        <v>0.1424181563814458</v>
+        <v>0.1148330690382981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J9">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>1477.112325649449</v>
@@ -1013,10 +1013,10 @@
         <v>13294.01093084504</v>
       </c>
       <c r="S9">
-        <v>0.2699748152051077</v>
+        <v>0.2339878735468195</v>
       </c>
       <c r="T9">
-        <v>0.314954809206748</v>
+        <v>0.2805715861037525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J10">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>698.4919805092914</v>
+        <v>809.1439249963627</v>
       </c>
       <c r="R10">
-        <v>6286.427824583622</v>
+        <v>7282.295324967265</v>
       </c>
       <c r="S10">
-        <v>0.1276647957543336</v>
+        <v>0.1281756729773293</v>
       </c>
       <c r="T10">
-        <v>0.1489347862269186</v>
+        <v>0.153693656521774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J11">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>234.821614659941</v>
+        <v>346.502307407417</v>
       </c>
       <c r="R11">
-        <v>1408.929687959646</v>
+        <v>2079.013844444502</v>
       </c>
       <c r="S11">
-        <v>0.04291882270775108</v>
+        <v>0.05488908100044471</v>
       </c>
       <c r="T11">
-        <v>0.03337963112603263</v>
+        <v>0.0438778194859191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J12">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>541.4312669841207</v>
+        <v>550.7089004230814</v>
       </c>
       <c r="R12">
-        <v>4872.881402857087</v>
+        <v>4956.380103807733</v>
       </c>
       <c r="S12">
-        <v>0.09895849063884617</v>
+        <v>0.08723724141740395</v>
       </c>
       <c r="T12">
-        <v>0.1154457778399319</v>
+        <v>0.1046049558927225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J13">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>514.0425094795247</v>
+        <v>609.8082079193541</v>
       </c>
       <c r="R13">
-        <v>4626.382585315721</v>
+        <v>5488.273871274187</v>
       </c>
       <c r="S13">
-        <v>0.09395259188788303</v>
+        <v>0.0965991031045728</v>
       </c>
       <c r="T13">
-        <v>0.1096058557537919</v>
+        <v>0.1158306332863304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H14">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I14">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J14">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>2.064864212187334</v>
+        <v>0.2905291981866667</v>
       </c>
       <c r="R14">
-        <v>12.389185273124</v>
+        <v>1.74317518912</v>
       </c>
       <c r="S14">
-        <v>0.0003773994194136955</v>
+        <v>4.60224372287134E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002935181492043339</v>
+        <v>3.678990714031391E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H15">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I15">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J15">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>3.044269684479778</v>
+        <v>0.4732332397937777</v>
       </c>
       <c r="R15">
-        <v>27.398427160318</v>
+        <v>4.259099158144</v>
       </c>
       <c r="S15">
-        <v>0.0005564073437276215</v>
+        <v>7.496440016661065E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006491093202594811</v>
+        <v>8.988876362370038E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H16">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I16">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J16">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>1.439564157845445</v>
+        <v>0.2592313356515555</v>
       </c>
       <c r="R16">
-        <v>12.956077420609</v>
+        <v>2.333082020864</v>
       </c>
       <c r="S16">
-        <v>0.0002631120604313843</v>
+        <v>4.10645743945979E-05</v>
       </c>
       <c r="T16">
-        <v>0.00030694866382334</v>
+        <v>4.92399567375977E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H17">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I17">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J17">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>0.4839579972061668</v>
+        <v>0.1110114692586667</v>
       </c>
       <c r="R17">
-        <v>2.903747983237001</v>
+        <v>0.666068815552</v>
       </c>
       <c r="S17">
-        <v>8.845398457109383E-05</v>
+        <v>1.758521486828893E-05</v>
       </c>
       <c r="T17">
-        <v>6.879409057223895E-05</v>
+        <v>1.40574567755221E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H18">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I18">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J18">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>1.115868281435223</v>
+        <v>0.1764346235591111</v>
       </c>
       <c r="R18">
-        <v>10.042814532917</v>
+        <v>1.587911612032</v>
       </c>
       <c r="S18">
-        <v>0.0002039495086748128</v>
+        <v>2.794883074885903E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002379291510716825</v>
+        <v>3.351305199747303E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H19">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I19">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J19">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>1.059421142839889</v>
+        <v>0.1953686993706667</v>
       </c>
       <c r="R19">
-        <v>9.534790285559</v>
+        <v>1.758318294336</v>
       </c>
       <c r="S19">
-        <v>0.0001936325506842064</v>
+        <v>3.094815859941519E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002258933041981258</v>
+        <v>3.710950406791468E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H20">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I20">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J20">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>202.259778927085</v>
+        <v>289.779375663685</v>
       </c>
       <c r="R20">
-        <v>809.03911570834</v>
+        <v>1159.11750265474</v>
       </c>
       <c r="S20">
-        <v>0.03696742995848825</v>
+        <v>0.04590365859919188</v>
       </c>
       <c r="T20">
-        <v>0.01916733494911599</v>
+        <v>0.02446330440769304</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H21">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I21">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J21">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>298.1955470694383</v>
+        <v>472.0118791042646</v>
       </c>
       <c r="R21">
-        <v>1789.17328241663</v>
+        <v>2832.071274625588</v>
       </c>
       <c r="S21">
-        <v>0.05450180485066457</v>
+        <v>0.07477092565176817</v>
       </c>
       <c r="T21">
-        <v>0.04238816507167718</v>
+        <v>0.05977118069287371</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H22">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I22">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J22">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>141.0097218977608</v>
+        <v>258.5622893204213</v>
       </c>
       <c r="R22">
-        <v>846.0583313865649</v>
+        <v>1551.373735922528</v>
       </c>
       <c r="S22">
-        <v>0.02577263282583035</v>
+        <v>0.04095859144014819</v>
       </c>
       <c r="T22">
-        <v>0.02004437499907311</v>
+        <v>0.03274191603961766</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H23">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I23">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J23">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>47.40516928288626</v>
+        <v>110.7249613948135</v>
       </c>
       <c r="R23">
-        <v>189.620677131545</v>
+        <v>442.899845579254</v>
       </c>
       <c r="S23">
-        <v>0.008664338923099172</v>
+        <v>0.01753982944657568</v>
       </c>
       <c r="T23">
-        <v>0.004492394695497955</v>
+        <v>0.009347450728429586</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H24">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I24">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J24">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>109.3027185917242</v>
+        <v>175.9792660411607</v>
       </c>
       <c r="R24">
-        <v>655.8163115503451</v>
+        <v>1055.875596246964</v>
       </c>
       <c r="S24">
-        <v>0.01997747953273781</v>
+        <v>0.02787669802375843</v>
       </c>
       <c r="T24">
-        <v>0.01553725977460757</v>
+        <v>0.02228437243720732</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H25">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I25">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J25">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>103.7735483412192</v>
+        <v>194.864475175687</v>
       </c>
       <c r="R25">
-        <v>622.6412900473149</v>
+        <v>1169.186851054122</v>
       </c>
       <c r="S25">
-        <v>0.01896690187341095</v>
+        <v>0.03086828495329807</v>
       </c>
       <c r="T25">
-        <v>0.01475129437844008</v>
+        <v>0.02467581913076212</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H26">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I26">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J26">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>5.996682985802667</v>
+        <v>1.473954520453333</v>
       </c>
       <c r="R26">
-        <v>35.980097914816</v>
+        <v>8.843727122720001</v>
       </c>
       <c r="S26">
-        <v>0.001096025910029473</v>
+        <v>0.0002334876488109726</v>
       </c>
       <c r="T26">
-        <v>0.0008524218110659134</v>
+        <v>0.0001866478490801572</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H27">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I27">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J27">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>8.841026985390222</v>
+        <v>2.400874946051555</v>
       </c>
       <c r="R27">
-        <v>79.56924286851199</v>
+        <v>21.607874514464</v>
       </c>
       <c r="S27">
-        <v>0.001615892430898683</v>
+        <v>0.0003803201784477967</v>
       </c>
       <c r="T27">
-        <v>0.001885113216526036</v>
+        <v>0.0004560366059868016</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H28">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I28">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J28">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>4.180715536339556</v>
+        <v>1.315169702087111</v>
       </c>
       <c r="R28">
-        <v>37.626439827056</v>
+        <v>11.836527318784</v>
       </c>
       <c r="S28">
-        <v>0.0007641178566783257</v>
+        <v>0.0002083347058994071</v>
       </c>
       <c r="T28">
-        <v>0.0008914260894252408</v>
+        <v>0.0002498112316190583</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H29">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I29">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J29">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>1.405488395101333</v>
+        <v>0.5631993546853333</v>
       </c>
       <c r="R29">
-        <v>8.432930370608</v>
+        <v>3.379196128112</v>
       </c>
       <c r="S29">
-        <v>0.0002568839641721714</v>
+        <v>8.921584167799898E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001997886108071526</v>
+        <v>7.131831185878047E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H30">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I30">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J30">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>3.240652967969778</v>
+        <v>0.8951135121102223</v>
       </c>
       <c r="R30">
-        <v>29.165876711728</v>
+        <v>8.056021608992001</v>
       </c>
       <c r="S30">
-        <v>0.0005923007146980886</v>
+        <v>0.0001417940285547399</v>
       </c>
       <c r="T30">
-        <v>0.0006909828179677835</v>
+        <v>0.0001700232361985363</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H31">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I31">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J31">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>3.076721803095111</v>
+        <v>0.9911725891573334</v>
       </c>
       <c r="R31">
-        <v>27.69049622785599</v>
+        <v>8.920553302416</v>
       </c>
       <c r="S31">
-        <v>0.0005623386832568185</v>
+        <v>0.0001570106500552349</v>
       </c>
       <c r="T31">
-        <v>0.0006560288690638369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.759416</v>
-      </c>
-      <c r="I32">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J32">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>47.464142</v>
-      </c>
-      <c r="N32">
-        <v>94.928284</v>
-      </c>
-      <c r="O32">
-        <v>0.2242480928640021</v>
-      </c>
-      <c r="P32">
-        <v>0.1646949584305047</v>
-      </c>
-      <c r="Q32">
-        <v>12.01500962035733</v>
-      </c>
-      <c r="R32">
-        <v>72.090057722144</v>
-      </c>
-      <c r="S32">
-        <v>0.002196007673632651</v>
-      </c>
-      <c r="T32">
-        <v>0.001707920242708725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.759416</v>
-      </c>
-      <c r="I33">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J33">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>69.97731266666666</v>
-      </c>
-      <c r="N33">
-        <v>209.931938</v>
-      </c>
-      <c r="O33">
-        <v>0.3306133482671609</v>
-      </c>
-      <c r="P33">
-        <v>0.364219496500593</v>
-      </c>
-      <c r="Q33">
-        <v>17.71396362535645</v>
-      </c>
-      <c r="R33">
-        <v>159.425672628208</v>
-      </c>
-      <c r="S33">
-        <v>0.003237617054074027</v>
-      </c>
-      <c r="T33">
-        <v>0.003777030315867429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.759416</v>
-      </c>
-      <c r="I34">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J34">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>33.09063966666667</v>
-      </c>
-      <c r="N34">
-        <v>99.271919</v>
-      </c>
-      <c r="O34">
-        <v>0.1563393442759357</v>
-      </c>
-      <c r="P34">
-        <v>0.1722309082614559</v>
-      </c>
-      <c r="Q34">
-        <v>8.376520404367112</v>
-      </c>
-      <c r="R34">
-        <v>75.38868363930399</v>
-      </c>
-      <c r="S34">
-        <v>0.001530993621109026</v>
-      </c>
-      <c r="T34">
-        <v>0.001786069576404024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.759416</v>
-      </c>
-      <c r="I35">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J35">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>11.1245335</v>
-      </c>
-      <c r="N35">
-        <v>22.249067</v>
-      </c>
-      <c r="O35">
-        <v>0.05255873837088856</v>
-      </c>
-      <c r="P35">
-        <v>0.03860081537640052</v>
-      </c>
-      <c r="Q35">
-        <v>2.816049577478667</v>
-      </c>
-      <c r="R35">
-        <v>16.896297464872</v>
-      </c>
-      <c r="S35">
-        <v>0.0005146950919619173</v>
-      </c>
-      <c r="T35">
-        <v>0.0004002983126786816</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.759416</v>
-      </c>
-      <c r="I36">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J36">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>25.64998233333334</v>
-      </c>
-      <c r="N36">
-        <v>76.94994700000001</v>
-      </c>
-      <c r="O36">
-        <v>0.121185370215801</v>
-      </c>
-      <c r="P36">
-        <v>0.1335036070218497</v>
-      </c>
-      <c r="Q36">
-        <v>6.493002327883556</v>
-      </c>
-      <c r="R36">
-        <v>58.437020950952</v>
-      </c>
-      <c r="S36">
-        <v>0.001186739202670975</v>
-      </c>
-      <c r="T36">
-        <v>0.001384459579577605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.759416</v>
-      </c>
-      <c r="I37">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J37">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>24.35245633333333</v>
-      </c>
-      <c r="N37">
-        <v>73.05736899999999</v>
-      </c>
-      <c r="O37">
-        <v>0.1150551060062118</v>
-      </c>
-      <c r="P37">
-        <v>0.126750214409196</v>
-      </c>
-      <c r="Q37">
-        <v>6.164548326278222</v>
-      </c>
-      <c r="R37">
-        <v>55.48093493650399</v>
-      </c>
-      <c r="S37">
-        <v>0.001126706998723458</v>
-      </c>
-      <c r="T37">
-        <v>0.001314425523526169</v>
+        <v>0.0001882692741868258</v>
       </c>
     </row>
   </sheetData>
